--- a/database/industries/folad/kechad/product/quarterly.xlsx
+++ b/database/industries/folad/kechad/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\kechad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A849D88-F318-4994-B10A-A394F2B52AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7290"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -141,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +321,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -317,7 +333,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -364,6 +380,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -399,6 +432,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,17 +600,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -569,8 +619,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,8 +636,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,8 +653,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -603,8 +668,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -615,8 +685,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -627,8 +702,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,8 +717,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -659,8 +744,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -669,20 +769,25 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>79065</v>
       </c>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>73516</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -693,316 +798,526 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>448729</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2030733</v>
+      </c>
+      <c r="G11" s="11">
+        <v>963329</v>
+      </c>
+      <c r="H11" s="11">
+        <v>695676</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1018218</v>
+      </c>
+      <c r="J11" s="11">
         <v>1065549</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>1030148</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>1184950</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>665975</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1101576</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>1781290</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5192725</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2902827</v>
+      </c>
+      <c r="H12" s="9">
+        <v>3107372</v>
+      </c>
+      <c r="I12" s="9">
+        <v>3053736</v>
+      </c>
+      <c r="J12" s="9">
         <v>2985962</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1881616</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2939065</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>2423623</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>2912491</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>16720</v>
+      </c>
+      <c r="F13" s="11">
+        <v>19017</v>
+      </c>
+      <c r="G13" s="11">
+        <v>16527</v>
+      </c>
+      <c r="H13" s="11">
+        <v>16378</v>
+      </c>
+      <c r="I13" s="11">
+        <v>19809</v>
+      </c>
+      <c r="J13" s="11">
         <v>8171</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>36911</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>10444</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>17651</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>28398</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>224371</v>
+      </c>
+      <c r="F14" s="9">
+        <v>267767</v>
+      </c>
+      <c r="G14" s="9">
+        <v>280028</v>
+      </c>
+      <c r="H14" s="9">
+        <v>306212</v>
+      </c>
+      <c r="I14" s="9">
+        <v>150049</v>
+      </c>
+      <c r="J14" s="9">
         <v>303170</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>295369</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
         <v>590264</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>315971</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>146882</v>
+      </c>
+      <c r="F15" s="11">
+        <v>931693</v>
+      </c>
+      <c r="G15" s="11">
+        <v>409289</v>
+      </c>
+      <c r="H15" s="11">
+        <v>446565</v>
+      </c>
+      <c r="I15" s="11">
+        <v>368042</v>
+      </c>
+      <c r="J15" s="11">
         <v>319192</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>330487</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>464866</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>457950</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>410393</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
         <v>49621</v>
       </c>
-      <c r="G21" s="11">
+      <c r="L21" s="11">
         <v>10185</v>
       </c>
-      <c r="H21" s="11">
+      <c r="M21" s="11">
         <v>-10185</v>
       </c>
-      <c r="I21" s="11">
+      <c r="N21" s="11">
         <v>9858</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>1123556</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>1171968</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>2697057</v>
+      </c>
+      <c r="F23" s="13">
+        <v>8515451</v>
+      </c>
+      <c r="G23" s="13">
+        <v>4572000</v>
+      </c>
+      <c r="H23" s="13">
+        <v>4572203</v>
+      </c>
+      <c r="I23" s="13">
+        <v>4609854</v>
+      </c>
+      <c r="J23" s="13">
         <v>4682044</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>3624152</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>4609510</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>5268834</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>5950655</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1011,8 +1326,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1021,8 +1341,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1031,10 +1356,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1053,8 +1383,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1063,340 +1408,555 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>99900</v>
+      </c>
+      <c r="F29" s="9">
+        <v>62573</v>
+      </c>
+      <c r="G29" s="9">
+        <v>37329</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
         <v>5025</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>319473</v>
+      </c>
+      <c r="F30" s="11">
+        <v>410081</v>
+      </c>
+      <c r="G30" s="11">
+        <v>443556</v>
+      </c>
+      <c r="H30" s="11">
+        <v>259138</v>
+      </c>
+      <c r="I30" s="11">
+        <v>323069</v>
+      </c>
+      <c r="J30" s="11">
         <v>598145</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="K30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="11">
+        <v>441863</v>
+      </c>
+      <c r="M30" s="11">
+        <v>305112</v>
+      </c>
+      <c r="N30" s="11">
+        <v>377211</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="11">
-        <v>441863</v>
-      </c>
-      <c r="H30" s="11">
-        <v>305112</v>
-      </c>
-      <c r="I30" s="11">
-        <v>377211</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1420721</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2014523</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2262107</v>
+      </c>
+      <c r="H31" s="9">
+        <v>2137698</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2141762</v>
+      </c>
+      <c r="J31" s="9">
         <v>1710089</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="9">
         <v>1687709</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>1587188</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>1463589</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>27355</v>
+      </c>
+      <c r="F32" s="11">
+        <v>6616</v>
+      </c>
+      <c r="G32" s="11">
+        <v>14372</v>
+      </c>
+      <c r="H32" s="11">
+        <v>21824</v>
+      </c>
+      <c r="I32" s="11">
+        <v>13456</v>
+      </c>
+      <c r="J32" s="11">
         <v>21056</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="11">
         <v>12089</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>34025</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>14877</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>286231</v>
+      </c>
+      <c r="F33" s="9">
+        <v>274485</v>
+      </c>
+      <c r="G33" s="9">
+        <v>313856</v>
+      </c>
+      <c r="H33" s="9">
+        <v>238810</v>
+      </c>
+      <c r="I33" s="9">
+        <v>197255</v>
+      </c>
+      <c r="J33" s="9">
         <v>255276</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="9">
         <v>308299</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>239423</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>349515</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>145383</v>
+      </c>
+      <c r="F34" s="11">
+        <v>94690</v>
+      </c>
+      <c r="G34" s="11">
+        <v>49340</v>
+      </c>
+      <c r="H34" s="11">
+        <v>38698</v>
+      </c>
+      <c r="I34" s="11">
+        <v>72786</v>
+      </c>
+      <c r="J34" s="11">
         <v>56599</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="11">
         <v>19990</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>25662</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>89060</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>18</v>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>18</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11">
+      <c r="E40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="11">
+        <v>90495</v>
+      </c>
+      <c r="J40" s="11">
         <v>10570</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="11">
         <v>6732</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>496</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>1106535</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1232875</v>
+      </c>
+      <c r="G41" s="9">
+        <v>761632</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1026816</v>
+      </c>
+      <c r="J41" s="9">
         <v>565844</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="K41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="9">
         <v>670117</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>453439</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>376068</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>3405598</v>
+      </c>
+      <c r="F42" s="13">
+        <v>4095843</v>
+      </c>
+      <c r="G42" s="13">
+        <v>3882192</v>
+      </c>
+      <c r="H42" s="13">
+        <v>2696168</v>
+      </c>
+      <c r="I42" s="13">
+        <v>3865639</v>
+      </c>
+      <c r="J42" s="13">
         <v>3222604</v>
       </c>
-      <c r="F42" s="13">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
+      <c r="K42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
         <v>3146799</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>2645345</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>2670321</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1405,8 +1965,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1415,8 +1980,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1425,10 +1995,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1447,8 +2022,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1457,342 +2047,557 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>908208</v>
+      </c>
+      <c r="F48" s="9">
+        <v>835254</v>
+      </c>
+      <c r="G48" s="9">
+        <v>601496</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <v>90452</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>6053349</v>
+      </c>
+      <c r="F49" s="11">
+        <v>10992000</v>
+      </c>
+      <c r="G49" s="11">
+        <v>14214425</v>
+      </c>
+      <c r="H49" s="11">
+        <v>8328674</v>
+      </c>
+      <c r="I49" s="11">
+        <v>15992384</v>
+      </c>
+      <c r="J49" s="11">
         <v>26819558</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="K49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="11">
+        <v>19064916</v>
+      </c>
+      <c r="M49" s="11">
+        <v>6646142</v>
+      </c>
+      <c r="N49" s="11">
+        <v>10931791</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="11">
-        <v>19064916</v>
-      </c>
-      <c r="H49" s="11">
-        <v>6646142</v>
-      </c>
-      <c r="I49" s="11">
-        <v>10931791</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C50" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>18715493</v>
+      </c>
+      <c r="F50" s="9">
+        <v>37196710</v>
+      </c>
+      <c r="G50" s="9">
+        <v>50056431</v>
+      </c>
+      <c r="H50" s="9">
+        <v>57102109</v>
+      </c>
+      <c r="I50" s="9">
+        <v>67091992</v>
+      </c>
+      <c r="J50" s="9">
         <v>53346169</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" s="9">
+      <c r="K50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="9">
         <v>54895134</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>38535036</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>37758104</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>202586</v>
+      </c>
+      <c r="F51" s="11">
+        <v>141391</v>
+      </c>
+      <c r="G51" s="11">
+        <v>306068</v>
+      </c>
+      <c r="H51" s="11">
+        <v>464892</v>
+      </c>
+      <c r="I51" s="11">
+        <v>244167</v>
+      </c>
+      <c r="J51" s="11">
         <v>384759</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="K51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="11">
         <v>271048</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>774476</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>333877</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>19070604</v>
+      </c>
+      <c r="F52" s="9">
+        <v>27284512</v>
+      </c>
+      <c r="G52" s="9">
+        <v>35834670</v>
+      </c>
+      <c r="H52" s="9">
+        <v>28042859</v>
+      </c>
+      <c r="I52" s="9">
+        <v>25164712</v>
+      </c>
+      <c r="J52" s="9">
         <v>34460917</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="9">
+      <c r="K52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="9">
         <v>46683372</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>33381174</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>46165955</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>4954920</v>
+      </c>
+      <c r="F53" s="11">
+        <v>5157803</v>
+      </c>
+      <c r="G53" s="11">
+        <v>3253122</v>
+      </c>
+      <c r="H53" s="11">
+        <v>2912661</v>
+      </c>
+      <c r="I53" s="11">
+        <v>6203255</v>
+      </c>
+      <c r="J53" s="11">
         <v>4678186</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="K53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="11">
         <v>1878546</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>1944491</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>6630811</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>18</v>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>18</v>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
       </c>
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <v>0</v>
+      <c r="H55" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I55" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="11">
+        <v>0</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="11">
+        <v>23</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="11">
         <v>586923</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>67796</v>
       </c>
-      <c r="I57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="9">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
+      <c r="E59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="11">
+        <v>1154357</v>
+      </c>
+      <c r="J59" s="11">
         <v>161912</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="11">
+      <c r="K59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="11">
         <v>115758</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>35055</v>
       </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
+        <v>734255</v>
+      </c>
+      <c r="F60" s="9">
+        <v>433524</v>
+      </c>
+      <c r="G60" s="9">
+        <v>443042</v>
+      </c>
+      <c r="H60" s="9">
+        <v>711588</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1046639</v>
+      </c>
+      <c r="J60" s="9">
         <v>722429</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="K60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="9">
         <v>565394</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>1259875</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>849362</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
+        <v>50639415</v>
+      </c>
+      <c r="F61" s="13">
+        <v>82041194</v>
+      </c>
+      <c r="G61" s="13">
+        <v>104709254</v>
+      </c>
+      <c r="H61" s="13">
+        <v>97562783</v>
+      </c>
+      <c r="I61" s="13">
+        <v>116897506</v>
+      </c>
+      <c r="J61" s="13">
         <v>120664382</v>
       </c>
-      <c r="F61" s="13">
-        <v>0</v>
-      </c>
-      <c r="G61" s="13">
+      <c r="K61" s="13">
+        <v>0</v>
+      </c>
+      <c r="L61" s="13">
         <v>124061091</v>
       </c>
-      <c r="H61" s="13">
+      <c r="M61" s="13">
         <v>82644045</v>
       </c>
-      <c r="I61" s="13">
+      <c r="N61" s="13">
         <v>102669900</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1801,8 +2606,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1811,8 +2621,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1821,10 +2636,15 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -1843,8 +2663,23 @@
       <c r="I65" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1853,320 +2688,520 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>9091171</v>
+      </c>
+      <c r="F67" s="9">
+        <v>13348473</v>
+      </c>
+      <c r="G67" s="9">
+        <v>16113370</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="9">
         <v>18000398</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>17142477</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>18947920</v>
+      </c>
+      <c r="F68" s="11">
+        <v>26804461</v>
+      </c>
+      <c r="G68" s="11">
+        <v>32046517</v>
+      </c>
+      <c r="H68" s="11">
+        <v>32139918</v>
+      </c>
+      <c r="I68" s="11">
+        <v>49501450</v>
+      </c>
+      <c r="J68" s="11">
         <v>44837887</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>36728755</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>43146668</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>21782631</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>28980573</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>13173236</v>
+      </c>
+      <c r="F69" s="9">
+        <v>18464277</v>
+      </c>
+      <c r="G69" s="9">
+        <v>22128233</v>
+      </c>
+      <c r="H69" s="9">
+        <v>26711963</v>
+      </c>
+      <c r="I69" s="9">
+        <v>31325606</v>
+      </c>
+      <c r="J69" s="9">
         <v>31194966</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>23846097</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>32526421</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>24278810</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>25798303</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>7405812</v>
+      </c>
+      <c r="F70" s="11">
+        <v>21371070</v>
+      </c>
+      <c r="G70" s="11">
+        <v>21296131</v>
+      </c>
+      <c r="H70" s="11">
+        <v>21301870</v>
+      </c>
+      <c r="I70" s="11">
+        <v>18145586</v>
+      </c>
+      <c r="J70" s="11">
         <v>18273129</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>19344840</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>22421044</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>22761969</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>22442495</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>66626620</v>
+      </c>
+      <c r="F71" s="9">
+        <v>99402561</v>
+      </c>
+      <c r="G71" s="9">
+        <v>114175514</v>
+      </c>
+      <c r="H71" s="9">
+        <v>117427490</v>
+      </c>
+      <c r="I71" s="9">
+        <v>127574520</v>
+      </c>
+      <c r="J71" s="9">
         <v>134994739</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>131150408</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>151422392</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>139423422</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>132085762</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>34081839</v>
+      </c>
+      <c r="F72" s="11">
+        <v>54470409</v>
+      </c>
+      <c r="G72" s="11">
+        <v>65932752</v>
+      </c>
+      <c r="H72" s="11">
+        <v>75266448</v>
+      </c>
+      <c r="I72" s="11">
+        <v>85225936</v>
+      </c>
+      <c r="J72" s="11">
         <v>82654923</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>80785176</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>93974287</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>75773167</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>74453301</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11">
+      <c r="E78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="11">
+        <v>12756031</v>
+      </c>
+      <c r="J78" s="11">
         <v>15318070</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>13019467</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>17195187</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>70675403</v>
       </c>
-      <c r="I78" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N78" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>663562</v>
+      </c>
+      <c r="F79" s="9">
+        <v>351637</v>
+      </c>
+      <c r="G79" s="9">
+        <v>581701</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" s="9">
+        <v>1019305</v>
+      </c>
+      <c r="J79" s="9">
         <v>1276728</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K79" s="9">
         <v>430379</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L79" s="9">
         <v>843724</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>2778488</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>2258533</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2175,8 +3210,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2185,8 +3225,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2195,10 +3240,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2217,8 +3267,23 @@
       <c r="I83" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2227,185 +3292,295 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>-288329</v>
+      </c>
+      <c r="F85" s="9">
+        <v>-281127</v>
+      </c>
+      <c r="G85" s="9">
+        <v>-273519</v>
+      </c>
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
         <v>-31718</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>-5938</v>
       </c>
-      <c r="G85" s="9">
-        <v>0</v>
-      </c>
-      <c r="H85" s="9">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L85" s="9">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>-1702622</v>
+      </c>
+      <c r="F86" s="11">
+        <v>-2923120</v>
+      </c>
+      <c r="G86" s="11">
+        <v>-5055454</v>
+      </c>
+      <c r="H86" s="11">
+        <v>-2487167</v>
+      </c>
+      <c r="I86" s="11">
+        <v>-4714481</v>
+      </c>
+      <c r="J86" s="11">
         <v>-10059745</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>-6233380</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>-6974676</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>-6045015</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-8048995</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>-6222023</v>
+      </c>
+      <c r="F87" s="9">
+        <v>-12741572</v>
+      </c>
+      <c r="G87" s="9">
+        <v>-22618873</v>
+      </c>
+      <c r="H87" s="9">
+        <v>-18862899</v>
+      </c>
+      <c r="I87" s="9">
+        <v>-24433008</v>
+      </c>
+      <c r="J87" s="9">
         <v>-30935481</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>-2889189</v>
       </c>
-      <c r="G87" s="9">
+      <c r="L87" s="9">
         <v>-23551850</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>-24400701</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>-20914582</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>-58439</v>
+      </c>
+      <c r="F88" s="11">
+        <v>-21774</v>
+      </c>
+      <c r="G88" s="11">
+        <v>-49241</v>
+      </c>
+      <c r="H88" s="11">
+        <v>-76408</v>
+      </c>
+      <c r="I88" s="11">
+        <v>-75605</v>
+      </c>
+      <c r="J88" s="11">
         <v>-101379</v>
       </c>
-      <c r="F88" s="11">
+      <c r="K88" s="11">
         <v>-148025</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>-70227</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>-263949</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>-240085</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>-7985241</v>
+      </c>
+      <c r="F89" s="9">
+        <v>-8421236</v>
+      </c>
+      <c r="G89" s="9">
+        <v>-11797070</v>
+      </c>
+      <c r="H89" s="9">
+        <v>-9655605</v>
+      </c>
+      <c r="I89" s="9">
+        <v>-10367182</v>
+      </c>
+      <c r="J89" s="9">
         <v>-19697405</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>-19164863</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>-20323278</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>-21714899</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>-32771538</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-1185180</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-1294670</v>
+      </c>
+      <c r="G90" s="11">
+        <v>-1040086</v>
+      </c>
+      <c r="H90" s="11">
+        <v>-619309</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-1547804</v>
+      </c>
+      <c r="J90" s="11">
         <v>-2029551</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>226419</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>-591542</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>-892145</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>-3137559</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>18</v>
+      <c r="E91" s="9">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
+        <v>0</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>18</v>
+      <c r="E92" s="11">
+        <v>0</v>
       </c>
       <c r="F92" s="11">
         <v>0</v>
@@ -2413,156 +3588,261 @@
       <c r="G92" s="11">
         <v>0</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
+      <c r="H92" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I92" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11">
+        <v>0</v>
+      </c>
+      <c r="N92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="9">
-        <v>0</v>
-      </c>
-      <c r="G93" s="9">
-        <v>0</v>
-      </c>
-      <c r="H93" s="9">
-        <v>0</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="9">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <v>0</v>
+      </c>
+      <c r="M93" s="9">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="9">
-        <v>0</v>
-      </c>
-      <c r="G95" s="9">
-        <v>0</v>
-      </c>
-      <c r="H95" s="9">
-        <v>0</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="9">
+        <v>0</v>
+      </c>
+      <c r="L95" s="9">
+        <v>0</v>
+      </c>
+      <c r="M95" s="9">
+        <v>0</v>
+      </c>
+      <c r="N95" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11">
+      <c r="E96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="11">
+        <v>-500222</v>
+      </c>
+      <c r="J96" s="11">
         <v>-70248</v>
       </c>
-      <c r="F96" s="11">
+      <c r="K96" s="11">
         <v>-237093</v>
       </c>
-      <c r="G96" s="11">
+      <c r="L96" s="11">
         <v>-43988</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>-20862</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>64850</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>-321275</v>
+      </c>
+      <c r="F97" s="9">
+        <v>-258764</v>
+      </c>
+      <c r="G97" s="9">
+        <v>-289857</v>
+      </c>
+      <c r="H97" s="9">
+        <v>-301293</v>
+      </c>
+      <c r="I97" s="9">
+        <v>-422813</v>
+      </c>
+      <c r="J97" s="9">
         <v>-675777</v>
       </c>
-      <c r="F97" s="9">
+      <c r="K97" s="9">
         <v>-272932</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>-376732</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>-723578</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>-487991</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>-17763109</v>
+      </c>
+      <c r="F98" s="13">
+        <v>-25942263</v>
+      </c>
+      <c r="G98" s="13">
+        <v>-41124100</v>
+      </c>
+      <c r="H98" s="13">
+        <v>-32002681</v>
+      </c>
+      <c r="I98" s="13">
+        <v>-42061115</v>
+      </c>
+      <c r="J98" s="13">
         <v>-63601304</v>
       </c>
-      <c r="F98" s="13">
+      <c r="K98" s="13">
         <v>-28725001</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>-51932293</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>-54061149</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>-65535900</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2571,8 +3851,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2581,8 +3866,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2591,10 +3881,15 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2613,8 +3908,23 @@
       <c r="I102" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2623,185 +3933,295 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9">
+        <v>619879</v>
+      </c>
+      <c r="F104" s="9">
+        <v>554127</v>
+      </c>
+      <c r="G104" s="9">
+        <v>327977</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0</v>
+      </c>
+      <c r="J104" s="9">
         <v>58734</v>
       </c>
-      <c r="F104" s="9">
+      <c r="K104" s="9">
         <v>45594</v>
       </c>
-      <c r="G104" s="9">
-        <v>0</v>
-      </c>
-      <c r="H104" s="9">
-        <v>0</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L104" s="9">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9">
+        <v>0</v>
+      </c>
+      <c r="N104" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
+        <v>4350727</v>
+      </c>
+      <c r="F105" s="11">
+        <v>8068880</v>
+      </c>
+      <c r="G105" s="11">
+        <v>9158971</v>
+      </c>
+      <c r="H105" s="11">
+        <v>5841507</v>
+      </c>
+      <c r="I105" s="11">
+        <v>11277903</v>
+      </c>
+      <c r="J105" s="11">
         <v>16759813</v>
       </c>
-      <c r="F105" s="11">
+      <c r="K105" s="11">
         <v>16601254</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>12090240</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>601127</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>2882796</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
+        <v>12493470</v>
+      </c>
+      <c r="F106" s="9">
+        <v>24455138</v>
+      </c>
+      <c r="G106" s="9">
+        <v>27437558</v>
+      </c>
+      <c r="H106" s="9">
+        <v>38239210</v>
+      </c>
+      <c r="I106" s="9">
+        <v>42658984</v>
+      </c>
+      <c r="J106" s="9">
         <v>22410688</v>
       </c>
-      <c r="F106" s="9">
+      <c r="K106" s="9">
         <v>37285285</v>
       </c>
-      <c r="G106" s="9">
+      <c r="L106" s="9">
         <v>31343284</v>
       </c>
-      <c r="H106" s="9">
+      <c r="M106" s="9">
         <v>14134335</v>
       </c>
-      <c r="I106" s="9">
+      <c r="N106" s="9">
         <v>16843522</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
+        <v>144147</v>
+      </c>
+      <c r="F107" s="11">
+        <v>119617</v>
+      </c>
+      <c r="G107" s="11">
+        <v>256827</v>
+      </c>
+      <c r="H107" s="11">
+        <v>388484</v>
+      </c>
+      <c r="I107" s="11">
+        <v>168562</v>
+      </c>
+      <c r="J107" s="11">
         <v>283380</v>
       </c>
-      <c r="F107" s="11">
+      <c r="K107" s="11">
         <v>346816</v>
       </c>
-      <c r="G107" s="11">
+      <c r="L107" s="11">
         <v>200821</v>
       </c>
-      <c r="H107" s="11">
+      <c r="M107" s="11">
         <v>510527</v>
       </c>
-      <c r="I107" s="11">
+      <c r="N107" s="11">
         <v>93792</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
+        <v>11085363</v>
+      </c>
+      <c r="F108" s="9">
+        <v>18863276</v>
+      </c>
+      <c r="G108" s="9">
+        <v>24037600</v>
+      </c>
+      <c r="H108" s="9">
+        <v>18387254</v>
+      </c>
+      <c r="I108" s="9">
+        <v>14797530</v>
+      </c>
+      <c r="J108" s="9">
         <v>14763512</v>
       </c>
-      <c r="F108" s="9">
+      <c r="K108" s="9">
         <v>23632794</v>
       </c>
-      <c r="G108" s="9">
+      <c r="L108" s="9">
         <v>26360094</v>
       </c>
-      <c r="H108" s="9">
+      <c r="M108" s="9">
         <v>11666275</v>
       </c>
-      <c r="I108" s="9">
+      <c r="N108" s="9">
         <v>13394417</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>3769740</v>
+      </c>
+      <c r="F109" s="11">
+        <v>3863133</v>
+      </c>
+      <c r="G109" s="11">
+        <v>2213036</v>
+      </c>
+      <c r="H109" s="11">
+        <v>2293352</v>
+      </c>
+      <c r="I109" s="11">
+        <v>4655451</v>
+      </c>
+      <c r="J109" s="11">
         <v>2648635</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>601343</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>1287004</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>1052346</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>3493252</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>18</v>
+      <c r="E110" s="9">
+        <v>0</v>
+      </c>
+      <c r="F110" s="9">
+        <v>0</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
-        <v>18</v>
+      <c r="E111" s="11">
+        <v>0</v>
       </c>
       <c r="F111" s="11">
         <v>0</v>
@@ -2809,152 +4229,257 @@
       <c r="G111" s="11">
         <v>0</v>
       </c>
-      <c r="H111" s="11">
-        <v>0</v>
+      <c r="H111" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="I111" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="11">
+        <v>0</v>
+      </c>
+      <c r="L111" s="11">
+        <v>0</v>
+      </c>
+      <c r="M111" s="11">
+        <v>0</v>
+      </c>
+      <c r="N111" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F112" s="9">
-        <v>0</v>
-      </c>
-      <c r="G112" s="9">
-        <v>0</v>
-      </c>
-      <c r="H112" s="9">
-        <v>0</v>
-      </c>
-      <c r="I112" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="9">
+        <v>0</v>
+      </c>
+      <c r="L112" s="9">
+        <v>0</v>
+      </c>
+      <c r="M112" s="9">
+        <v>0</v>
+      </c>
+      <c r="N112" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F113" s="11">
+        <v>23</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="11">
         <v>12945991</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>586923</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>67796</v>
       </c>
-      <c r="I113" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N113" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F114" s="9">
-        <v>0</v>
-      </c>
-      <c r="G114" s="9">
-        <v>0</v>
-      </c>
-      <c r="H114" s="9">
-        <v>0</v>
-      </c>
-      <c r="I114" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="9">
+        <v>0</v>
+      </c>
+      <c r="L114" s="9">
+        <v>0</v>
+      </c>
+      <c r="M114" s="9">
+        <v>0</v>
+      </c>
+      <c r="N114" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D115" s="11"/>
-      <c r="E115" s="11">
+      <c r="E115" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" s="11">
+        <v>654135</v>
+      </c>
+      <c r="J115" s="11">
         <v>91664</v>
       </c>
-      <c r="F115" s="11">
+      <c r="K115" s="11">
         <v>164857</v>
       </c>
-      <c r="G115" s="11">
+      <c r="L115" s="11">
         <v>71770</v>
       </c>
-      <c r="H115" s="11">
+      <c r="M115" s="11">
         <v>14193</v>
       </c>
-      <c r="I115" s="11">
+      <c r="N115" s="11">
         <v>64850</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
+        <v>412980</v>
+      </c>
+      <c r="F116" s="9">
+        <v>174760</v>
+      </c>
+      <c r="G116" s="9">
+        <v>153185</v>
+      </c>
+      <c r="H116" s="9">
+        <v>410295</v>
+      </c>
+      <c r="I116" s="9">
+        <v>623826</v>
+      </c>
+      <c r="J116" s="9">
         <v>46652</v>
       </c>
-      <c r="F116" s="9">
+      <c r="K116" s="9">
         <v>512742</v>
       </c>
-      <c r="G116" s="9">
+      <c r="L116" s="9">
         <v>188662</v>
       </c>
-      <c r="H116" s="9">
+      <c r="M116" s="9">
         <v>536297</v>
       </c>
-      <c r="I116" s="9">
+      <c r="N116" s="9">
         <v>361371</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
+        <v>32876306</v>
+      </c>
+      <c r="F117" s="13">
+        <v>56098931</v>
+      </c>
+      <c r="G117" s="13">
+        <v>63585154</v>
+      </c>
+      <c r="H117" s="13">
+        <v>65560102</v>
+      </c>
+      <c r="I117" s="13">
+        <v>74836391</v>
+      </c>
+      <c r="J117" s="13">
         <v>57063078</v>
       </c>
-      <c r="F117" s="13">
+      <c r="K117" s="13">
         <v>92136676</v>
       </c>
-      <c r="G117" s="13">
+      <c r="L117" s="13">
         <v>72128798</v>
       </c>
-      <c r="H117" s="13">
+      <c r="M117" s="13">
         <v>28582896</v>
       </c>
-      <c r="I117" s="13">
+      <c r="N117" s="13">
         <v>37134000</v>
       </c>
     </row>

--- a/database/industries/folad/kechad/product/quarterly.xlsx
+++ b/database/industries/folad/kechad/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A849D88-F318-4994-B10A-A394F2B52AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB164A-F4C7-4C33-9308-1B2C5A08150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سنگ دانه بندی</t>
@@ -605,12 +605,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -625,7 +625,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -674,7 +674,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -723,7 +723,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -775,7 +775,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -784,10 +784,10 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>79065</v>
+        <v>73516</v>
       </c>
       <c r="F10" s="9">
-        <v>73516</v>
+        <v>0</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -823,37 +823,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>448729</v>
+        <v>2030733</v>
       </c>
       <c r="F11" s="11">
-        <v>2030733</v>
+        <v>963329</v>
       </c>
       <c r="G11" s="11">
-        <v>963329</v>
+        <v>695676</v>
       </c>
       <c r="H11" s="11">
-        <v>695676</v>
+        <v>1018218</v>
       </c>
       <c r="I11" s="11">
-        <v>1018218</v>
+        <v>1065549</v>
       </c>
       <c r="J11" s="11">
-        <v>1065549</v>
+        <v>1030148</v>
       </c>
       <c r="K11" s="11">
-        <v>1030148</v>
+        <v>1184950</v>
       </c>
       <c r="L11" s="11">
-        <v>1184950</v>
+        <v>665975</v>
       </c>
       <c r="M11" s="11">
-        <v>665975</v>
+        <v>1101576</v>
       </c>
       <c r="N11" s="11">
-        <v>1101576</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>826359</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -862,37 +862,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1781290</v>
+        <v>5192725</v>
       </c>
       <c r="F12" s="9">
-        <v>5192725</v>
+        <v>2902827</v>
       </c>
       <c r="G12" s="9">
-        <v>2902827</v>
+        <v>3107372</v>
       </c>
       <c r="H12" s="9">
-        <v>3107372</v>
+        <v>3053736</v>
       </c>
       <c r="I12" s="9">
-        <v>3053736</v>
+        <v>2985962</v>
       </c>
       <c r="J12" s="9">
-        <v>2985962</v>
+        <v>1881616</v>
       </c>
       <c r="K12" s="9">
-        <v>1881616</v>
+        <v>2939065</v>
       </c>
       <c r="L12" s="9">
-        <v>2939065</v>
+        <v>2423623</v>
       </c>
       <c r="M12" s="9">
-        <v>2423623</v>
+        <v>2912491</v>
       </c>
       <c r="N12" s="9">
-        <v>2912491</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2767087</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -901,37 +901,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>16720</v>
+        <v>19017</v>
       </c>
       <c r="F13" s="11">
-        <v>19017</v>
+        <v>16527</v>
       </c>
       <c r="G13" s="11">
-        <v>16527</v>
+        <v>16378</v>
       </c>
       <c r="H13" s="11">
-        <v>16378</v>
+        <v>19809</v>
       </c>
       <c r="I13" s="11">
-        <v>19809</v>
+        <v>8171</v>
       </c>
       <c r="J13" s="11">
-        <v>8171</v>
+        <v>36911</v>
       </c>
       <c r="K13" s="11">
-        <v>36911</v>
+        <v>10444</v>
       </c>
       <c r="L13" s="11">
-        <v>10444</v>
+        <v>17651</v>
       </c>
       <c r="M13" s="11">
-        <v>17651</v>
+        <v>28398</v>
       </c>
       <c r="N13" s="11">
-        <v>28398</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -940,37 +940,37 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>224371</v>
+        <v>267767</v>
       </c>
       <c r="F14" s="9">
-        <v>267767</v>
+        <v>280028</v>
       </c>
       <c r="G14" s="9">
-        <v>280028</v>
+        <v>306212</v>
       </c>
       <c r="H14" s="9">
-        <v>306212</v>
+        <v>150049</v>
       </c>
       <c r="I14" s="9">
-        <v>150049</v>
+        <v>303170</v>
       </c>
       <c r="J14" s="9">
-        <v>303170</v>
+        <v>295369</v>
       </c>
       <c r="K14" s="9">
-        <v>295369</v>
+        <v>0</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>590264</v>
       </c>
       <c r="M14" s="9">
-        <v>590264</v>
+        <v>315971</v>
       </c>
       <c r="N14" s="9">
-        <v>315971</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>278043</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -979,37 +979,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>146882</v>
+        <v>931693</v>
       </c>
       <c r="F15" s="11">
-        <v>931693</v>
+        <v>409289</v>
       </c>
       <c r="G15" s="11">
-        <v>409289</v>
+        <v>446565</v>
       </c>
       <c r="H15" s="11">
-        <v>446565</v>
+        <v>368042</v>
       </c>
       <c r="I15" s="11">
-        <v>368042</v>
+        <v>319192</v>
       </c>
       <c r="J15" s="11">
-        <v>319192</v>
+        <v>330487</v>
       </c>
       <c r="K15" s="11">
-        <v>330487</v>
+        <v>464866</v>
       </c>
       <c r="L15" s="11">
-        <v>464866</v>
+        <v>457950</v>
       </c>
       <c r="M15" s="11">
-        <v>457950</v>
+        <v>410393</v>
       </c>
       <c r="N15" s="11">
-        <v>410393</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>281806</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1024,14 +1024,14 @@
       <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>23</v>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1069,8 +1069,8 @@
       <c r="I17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>23</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1108,8 +1108,8 @@
       <c r="I18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>23</v>
+      <c r="J18" s="9">
+        <v>0</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1186,8 +1186,8 @@
       <c r="I20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>23</v>
+      <c r="J20" s="9">
+        <v>0</v>
       </c>
       <c r="K20" s="9">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1219,29 +1219,29 @@
       <c r="G21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>23</v>
+      <c r="H21" s="11">
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <v>0</v>
       </c>
       <c r="J21" s="11">
-        <v>0</v>
+        <v>49621</v>
       </c>
       <c r="K21" s="11">
-        <v>49621</v>
+        <v>10185</v>
       </c>
       <c r="L21" s="11">
-        <v>10185</v>
+        <v>-10185</v>
       </c>
       <c r="M21" s="11">
-        <v>-10185</v>
+        <v>9858</v>
       </c>
       <c r="N21" s="11">
-        <v>9858</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9858</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1258,8 +1258,8 @@
       <c r="G22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>23</v>
+      <c r="H22" s="9">
+        <v>0</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
@@ -1271,53 +1271,53 @@
         <v>0</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>1123556</v>
       </c>
       <c r="M22" s="9">
-        <v>1123556</v>
+        <v>1171968</v>
       </c>
       <c r="N22" s="9">
-        <v>1171968</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2295524</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>2697057</v>
+        <v>8515451</v>
       </c>
       <c r="F23" s="13">
-        <v>8515451</v>
+        <v>4572000</v>
       </c>
       <c r="G23" s="13">
-        <v>4572000</v>
+        <v>4572203</v>
       </c>
       <c r="H23" s="13">
-        <v>4572203</v>
+        <v>4609854</v>
       </c>
       <c r="I23" s="13">
-        <v>4609854</v>
+        <v>4682044</v>
       </c>
       <c r="J23" s="13">
-        <v>4682044</v>
+        <v>3624152</v>
       </c>
       <c r="K23" s="13">
-        <v>3624152</v>
+        <v>4609510</v>
       </c>
       <c r="L23" s="13">
-        <v>4609510</v>
+        <v>5268834</v>
       </c>
       <c r="M23" s="13">
-        <v>5268834</v>
+        <v>5950655</v>
       </c>
       <c r="N23" s="13">
-        <v>5950655</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1856343</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1347,7 +1347,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1362,7 +1362,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>32</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -1423,25 +1423,25 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>99900</v>
+        <v>62573</v>
       </c>
       <c r="F29" s="9">
-        <v>62573</v>
+        <v>37329</v>
       </c>
       <c r="G29" s="9">
-        <v>37329</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
         <v>5025</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>23</v>
+      <c r="J29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
@@ -1462,37 +1462,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>319473</v>
+        <v>410081</v>
       </c>
       <c r="F30" s="11">
-        <v>410081</v>
+        <v>443556</v>
       </c>
       <c r="G30" s="11">
-        <v>443556</v>
+        <v>259138</v>
       </c>
       <c r="H30" s="11">
-        <v>259138</v>
+        <v>323069</v>
       </c>
       <c r="I30" s="11">
-        <v>323069</v>
-      </c>
-      <c r="J30" s="11">
         <v>598145</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>23</v>
+      <c r="J30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="11">
+        <v>441863</v>
       </c>
       <c r="L30" s="11">
-        <v>441863</v>
+        <v>305112</v>
       </c>
       <c r="M30" s="11">
-        <v>305112</v>
+        <v>377211</v>
       </c>
       <c r="N30" s="11">
-        <v>377211</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>239109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1501,37 +1501,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>1420721</v>
+        <v>2014523</v>
       </c>
       <c r="F31" s="9">
-        <v>2014523</v>
+        <v>2262107</v>
       </c>
       <c r="G31" s="9">
-        <v>2262107</v>
+        <v>2137698</v>
       </c>
       <c r="H31" s="9">
-        <v>2137698</v>
+        <v>2141762</v>
       </c>
       <c r="I31" s="9">
-        <v>2141762</v>
-      </c>
-      <c r="J31" s="9">
         <v>1710089</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>23</v>
+      <c r="J31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1687709</v>
       </c>
       <c r="L31" s="9">
-        <v>1687709</v>
+        <v>1587188</v>
       </c>
       <c r="M31" s="9">
-        <v>1587188</v>
+        <v>1463589</v>
       </c>
       <c r="N31" s="9">
-        <v>1463589</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1530570</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
@@ -1540,37 +1540,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>27355</v>
+        <v>6616</v>
       </c>
       <c r="F32" s="11">
-        <v>6616</v>
+        <v>14372</v>
       </c>
       <c r="G32" s="11">
-        <v>14372</v>
+        <v>21824</v>
       </c>
       <c r="H32" s="11">
-        <v>21824</v>
+        <v>13456</v>
       </c>
       <c r="I32" s="11">
-        <v>13456</v>
-      </c>
-      <c r="J32" s="11">
         <v>21056</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>23</v>
+      <c r="J32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="11">
+        <v>12089</v>
       </c>
       <c r="L32" s="11">
-        <v>12089</v>
+        <v>34025</v>
       </c>
       <c r="M32" s="11">
-        <v>34025</v>
+        <v>14877</v>
       </c>
       <c r="N32" s="11">
-        <v>14877</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14696</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>20</v>
       </c>
@@ -1579,37 +1579,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>286231</v>
+        <v>274485</v>
       </c>
       <c r="F33" s="9">
-        <v>274485</v>
+        <v>313856</v>
       </c>
       <c r="G33" s="9">
-        <v>313856</v>
+        <v>238810</v>
       </c>
       <c r="H33" s="9">
-        <v>238810</v>
+        <v>197255</v>
       </c>
       <c r="I33" s="9">
-        <v>197255</v>
-      </c>
-      <c r="J33" s="9">
         <v>255276</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>23</v>
+      <c r="J33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="9">
+        <v>308299</v>
       </c>
       <c r="L33" s="9">
-        <v>308299</v>
+        <v>239423</v>
       </c>
       <c r="M33" s="9">
-        <v>239423</v>
+        <v>349515</v>
       </c>
       <c r="N33" s="9">
-        <v>349515</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>282076</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>21</v>
       </c>
@@ -1618,37 +1618,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>145383</v>
+        <v>94690</v>
       </c>
       <c r="F34" s="11">
-        <v>94690</v>
+        <v>49340</v>
       </c>
       <c r="G34" s="11">
-        <v>49340</v>
+        <v>38698</v>
       </c>
       <c r="H34" s="11">
-        <v>38698</v>
+        <v>72786</v>
       </c>
       <c r="I34" s="11">
-        <v>72786</v>
-      </c>
-      <c r="J34" s="11">
         <v>56599</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>23</v>
+      <c r="J34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="11">
+        <v>19990</v>
       </c>
       <c r="L34" s="11">
-        <v>19990</v>
+        <v>25662</v>
       </c>
       <c r="M34" s="11">
-        <v>25662</v>
+        <v>89060</v>
       </c>
       <c r="N34" s="11">
-        <v>89060</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1662,8 +1662,8 @@
       <c r="F35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
+      <c r="G35" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>23</v>
@@ -1687,7 +1687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
@@ -1699,20 +1699,20 @@
       <c r="F36" s="11">
         <v>0</v>
       </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+      <c r="G36" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>23</v>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>24</v>
       </c>
@@ -1750,8 +1750,8 @@
       <c r="J37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>23</v>
+      <c r="K37" s="9">
+        <v>0</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1789,8 @@
       <c r="J38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>23</v>
+      <c r="K38" s="11">
+        <v>0</v>
       </c>
       <c r="L38" s="11">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1828,8 +1828,8 @@
       <c r="J39" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="9" t="s">
-        <v>23</v>
+      <c r="K39" s="9">
+        <v>0</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>28</v>
       </c>
@@ -1858,29 +1858,29 @@
       <c r="G40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>23</v>
+      <c r="H40" s="11">
+        <v>90495</v>
       </c>
       <c r="I40" s="11">
-        <v>90495</v>
-      </c>
-      <c r="J40" s="11">
         <v>10570</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>23</v>
+      <c r="J40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="11">
+        <v>6732</v>
       </c>
       <c r="L40" s="11">
-        <v>6732</v>
+        <v>496</v>
       </c>
       <c r="M40" s="11">
-        <v>496</v>
+        <v>1</v>
       </c>
       <c r="N40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1889,74 +1889,74 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>1106535</v>
+        <v>1232875</v>
       </c>
       <c r="F41" s="9">
-        <v>1232875</v>
+        <v>761632</v>
       </c>
       <c r="G41" s="9">
-        <v>761632</v>
+        <v>0</v>
       </c>
       <c r="H41" s="9">
-        <v>0</v>
+        <v>1026816</v>
       </c>
       <c r="I41" s="9">
-        <v>1026816</v>
-      </c>
-      <c r="J41" s="9">
         <v>565844</v>
       </c>
-      <c r="K41" s="9" t="s">
-        <v>23</v>
+      <c r="J41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="9">
+        <v>670117</v>
       </c>
       <c r="L41" s="9">
-        <v>670117</v>
+        <v>453439</v>
       </c>
       <c r="M41" s="9">
-        <v>453439</v>
+        <v>376068</v>
       </c>
       <c r="N41" s="9">
-        <v>376068</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1539074</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
-        <v>3405598</v>
+        <v>4095843</v>
       </c>
       <c r="F42" s="13">
-        <v>4095843</v>
+        <v>3882192</v>
       </c>
       <c r="G42" s="13">
-        <v>3882192</v>
+        <v>2696168</v>
       </c>
       <c r="H42" s="13">
-        <v>2696168</v>
+        <v>3865639</v>
       </c>
       <c r="I42" s="13">
-        <v>3865639</v>
+        <v>3222604</v>
       </c>
       <c r="J42" s="13">
-        <v>3222604</v>
+        <v>0</v>
       </c>
       <c r="K42" s="13">
-        <v>0</v>
+        <v>3146799</v>
       </c>
       <c r="L42" s="13">
-        <v>3146799</v>
+        <v>2645345</v>
       </c>
       <c r="M42" s="13">
-        <v>2645345</v>
+        <v>2670321</v>
       </c>
       <c r="N42" s="13">
-        <v>2670321</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3605524</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1971,7 +1971,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1986,7 +1986,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2001,7 +2001,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>35</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2053,7 +2053,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -2062,25 +2062,25 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>908208</v>
+        <v>835254</v>
       </c>
       <c r="F48" s="9">
-        <v>835254</v>
+        <v>601496</v>
       </c>
       <c r="G48" s="9">
-        <v>601496</v>
+        <v>0</v>
       </c>
       <c r="H48" s="9">
         <v>0</v>
       </c>
       <c r="I48" s="9">
-        <v>0</v>
-      </c>
-      <c r="J48" s="9">
         <v>90452</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>23</v>
+      <c r="J48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>17</v>
       </c>
@@ -2101,37 +2101,37 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>6053349</v>
+        <v>10992000</v>
       </c>
       <c r="F49" s="11">
-        <v>10992000</v>
+        <v>14214425</v>
       </c>
       <c r="G49" s="11">
-        <v>14214425</v>
+        <v>8328674</v>
       </c>
       <c r="H49" s="11">
-        <v>8328674</v>
+        <v>15992384</v>
       </c>
       <c r="I49" s="11">
-        <v>15992384</v>
-      </c>
-      <c r="J49" s="11">
         <v>26819558</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>23</v>
+      <c r="J49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="11">
+        <v>19064916</v>
       </c>
       <c r="L49" s="11">
-        <v>19064916</v>
+        <v>6646142</v>
       </c>
       <c r="M49" s="11">
-        <v>6646142</v>
+        <v>10931791</v>
       </c>
       <c r="N49" s="11">
-        <v>10931791</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8514774</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -2140,37 +2140,37 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>18715493</v>
+        <v>37196710</v>
       </c>
       <c r="F50" s="9">
-        <v>37196710</v>
+        <v>50056431</v>
       </c>
       <c r="G50" s="9">
-        <v>50056431</v>
+        <v>57102109</v>
       </c>
       <c r="H50" s="9">
-        <v>57102109</v>
+        <v>67091992</v>
       </c>
       <c r="I50" s="9">
-        <v>67091992</v>
-      </c>
-      <c r="J50" s="9">
         <v>53346169</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>23</v>
+      <c r="J50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="9">
+        <v>54895134</v>
       </c>
       <c r="L50" s="9">
-        <v>54895134</v>
+        <v>38535036</v>
       </c>
       <c r="M50" s="9">
-        <v>38535036</v>
+        <v>37758104</v>
       </c>
       <c r="N50" s="9">
-        <v>37758104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46462980</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -2179,37 +2179,37 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>202586</v>
+        <v>141391</v>
       </c>
       <c r="F51" s="11">
-        <v>141391</v>
+        <v>306068</v>
       </c>
       <c r="G51" s="11">
-        <v>306068</v>
+        <v>464892</v>
       </c>
       <c r="H51" s="11">
-        <v>464892</v>
+        <v>244167</v>
       </c>
       <c r="I51" s="11">
-        <v>244167</v>
-      </c>
-      <c r="J51" s="11">
         <v>384759</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>23</v>
+      <c r="J51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="11">
+        <v>271048</v>
       </c>
       <c r="L51" s="11">
-        <v>271048</v>
+        <v>774476</v>
       </c>
       <c r="M51" s="11">
-        <v>774476</v>
+        <v>333877</v>
       </c>
       <c r="N51" s="11">
-        <v>333877</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>457930</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -2218,37 +2218,37 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>19070604</v>
+        <v>27284512</v>
       </c>
       <c r="F52" s="9">
-        <v>27284512</v>
+        <v>35834670</v>
       </c>
       <c r="G52" s="9">
-        <v>35834670</v>
+        <v>28042859</v>
       </c>
       <c r="H52" s="9">
-        <v>28042859</v>
+        <v>25164712</v>
       </c>
       <c r="I52" s="9">
-        <v>25164712</v>
-      </c>
-      <c r="J52" s="9">
         <v>34460917</v>
       </c>
-      <c r="K52" s="9" t="s">
-        <v>23</v>
+      <c r="J52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="9">
+        <v>46683372</v>
       </c>
       <c r="L52" s="9">
-        <v>46683372</v>
+        <v>33381174</v>
       </c>
       <c r="M52" s="9">
-        <v>33381174</v>
+        <v>46165955</v>
       </c>
       <c r="N52" s="9">
-        <v>46165955</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45033341</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>21</v>
       </c>
@@ -2257,37 +2257,37 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>4954920</v>
+        <v>5157803</v>
       </c>
       <c r="F53" s="11">
-        <v>5157803</v>
+        <v>3253122</v>
       </c>
       <c r="G53" s="11">
-        <v>3253122</v>
+        <v>2912661</v>
       </c>
       <c r="H53" s="11">
-        <v>2912661</v>
+        <v>6203255</v>
       </c>
       <c r="I53" s="11">
-        <v>6203255</v>
-      </c>
-      <c r="J53" s="11">
         <v>4678186</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>23</v>
+      <c r="J53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="11">
+        <v>1878546</v>
       </c>
       <c r="L53" s="11">
-        <v>1878546</v>
+        <v>1944491</v>
       </c>
       <c r="M53" s="11">
-        <v>1944491</v>
+        <v>6630811</v>
       </c>
       <c r="N53" s="11">
-        <v>6630811</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
@@ -2301,8 +2301,8 @@
       <c r="F54" s="9">
         <v>0</v>
       </c>
-      <c r="G54" s="9">
-        <v>0</v>
+      <c r="G54" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>23</v>
@@ -2326,7 +2326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>22</v>
       </c>
@@ -2340,20 +2340,20 @@
       <c r="F55" s="11">
         <v>0</v>
       </c>
-      <c r="G55" s="11">
-        <v>0</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
+      <c r="G55" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="11" t="s">
-        <v>23</v>
+      <c r="K55" s="11">
+        <v>0</v>
       </c>
       <c r="L55" s="11">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>24</v>
       </c>
@@ -2391,8 +2391,8 @@
       <c r="J56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="9" t="s">
-        <v>23</v>
+      <c r="K56" s="9">
+        <v>0</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>25</v>
       </c>
@@ -2430,20 +2430,20 @@
       <c r="J57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>23</v>
+      <c r="K57" s="11">
+        <v>586923</v>
       </c>
       <c r="L57" s="11">
-        <v>586923</v>
+        <v>67796</v>
       </c>
       <c r="M57" s="11">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="N57" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>27</v>
       </c>
@@ -2469,8 +2469,8 @@
       <c r="J58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="9" t="s">
-        <v>23</v>
+      <c r="K58" s="9">
+        <v>0</v>
       </c>
       <c r="L58" s="9">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
@@ -2499,29 +2499,29 @@
       <c r="G59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>23</v>
+      <c r="H59" s="11">
+        <v>1154357</v>
       </c>
       <c r="I59" s="11">
-        <v>1154357</v>
-      </c>
-      <c r="J59" s="11">
         <v>161912</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>23</v>
+      <c r="J59" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="11">
+        <v>115758</v>
       </c>
       <c r="L59" s="11">
-        <v>115758</v>
+        <v>35055</v>
       </c>
       <c r="M59" s="11">
-        <v>35055</v>
+        <v>0</v>
       </c>
       <c r="N59" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>29</v>
       </c>
@@ -2530,74 +2530,74 @@
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>734255</v>
+        <v>433524</v>
       </c>
       <c r="F60" s="9">
-        <v>433524</v>
+        <v>443042</v>
       </c>
       <c r="G60" s="9">
-        <v>443042</v>
+        <v>711588</v>
       </c>
       <c r="H60" s="9">
-        <v>711588</v>
+        <v>1046639</v>
       </c>
       <c r="I60" s="9">
-        <v>1046639</v>
-      </c>
-      <c r="J60" s="9">
         <v>722429</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>23</v>
+      <c r="J60" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="9">
+        <v>565394</v>
       </c>
       <c r="L60" s="9">
-        <v>565394</v>
+        <v>1259875</v>
       </c>
       <c r="M60" s="9">
-        <v>1259875</v>
+        <v>849362</v>
       </c>
       <c r="N60" s="9">
-        <v>849362</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>657385</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
-        <v>50639415</v>
+        <v>82041194</v>
       </c>
       <c r="F61" s="13">
-        <v>82041194</v>
+        <v>104709254</v>
       </c>
       <c r="G61" s="13">
-        <v>104709254</v>
+        <v>97562783</v>
       </c>
       <c r="H61" s="13">
-        <v>97562783</v>
+        <v>116897506</v>
       </c>
       <c r="I61" s="13">
-        <v>116897506</v>
+        <v>120664382</v>
       </c>
       <c r="J61" s="13">
-        <v>120664382</v>
+        <v>0</v>
       </c>
       <c r="K61" s="13">
-        <v>0</v>
+        <v>124061091</v>
       </c>
       <c r="L61" s="13">
-        <v>124061091</v>
+        <v>82644045</v>
       </c>
       <c r="M61" s="13">
-        <v>82644045</v>
+        <v>102669900</v>
       </c>
       <c r="N61" s="13">
-        <v>102669900</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101126410</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2612,7 +2612,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2627,7 +2627,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2642,7 +2642,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>37</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2694,7 +2694,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>15</v>
       </c>
@@ -2703,26 +2703,26 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>9091171</v>
+        <v>13348473</v>
       </c>
       <c r="F67" s="9">
-        <v>13348473</v>
-      </c>
-      <c r="G67" s="9">
         <v>16113370</v>
       </c>
+      <c r="G67" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>23</v>
+      <c r="I67" s="9">
+        <v>18000398</v>
       </c>
       <c r="J67" s="9">
-        <v>18000398</v>
-      </c>
-      <c r="K67" s="9">
         <v>17142477</v>
       </c>
+      <c r="K67" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="L67" s="9" t="s">
         <v>23</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>17</v>
       </c>
@@ -2742,37 +2742,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>18947920</v>
+        <v>26804461</v>
       </c>
       <c r="F68" s="11">
-        <v>26804461</v>
+        <v>32046517</v>
       </c>
       <c r="G68" s="11">
-        <v>32046517</v>
+        <v>32139918</v>
       </c>
       <c r="H68" s="11">
-        <v>32139918</v>
+        <v>49501450</v>
       </c>
       <c r="I68" s="11">
-        <v>49501450</v>
+        <v>44837887</v>
       </c>
       <c r="J68" s="11">
-        <v>44837887</v>
+        <v>36728755</v>
       </c>
       <c r="K68" s="11">
-        <v>36728755</v>
+        <v>43146668</v>
       </c>
       <c r="L68" s="11">
-        <v>43146668</v>
+        <v>21782631</v>
       </c>
       <c r="M68" s="11">
-        <v>21782631</v>
+        <v>28980573</v>
       </c>
       <c r="N68" s="11">
-        <v>28980573</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35610429</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>18</v>
       </c>
@@ -2781,37 +2781,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>13173236</v>
+        <v>18464277</v>
       </c>
       <c r="F69" s="9">
-        <v>18464277</v>
+        <v>22128233</v>
       </c>
       <c r="G69" s="9">
-        <v>22128233</v>
+        <v>26711963</v>
       </c>
       <c r="H69" s="9">
-        <v>26711963</v>
+        <v>31325606</v>
       </c>
       <c r="I69" s="9">
-        <v>31325606</v>
+        <v>31194966</v>
       </c>
       <c r="J69" s="9">
-        <v>31194966</v>
+        <v>23846097</v>
       </c>
       <c r="K69" s="9">
-        <v>23846097</v>
+        <v>32526421</v>
       </c>
       <c r="L69" s="9">
-        <v>32526421</v>
+        <v>24278810</v>
       </c>
       <c r="M69" s="9">
-        <v>24278810</v>
+        <v>25798303</v>
       </c>
       <c r="N69" s="9">
-        <v>25798303</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30356645</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>19</v>
       </c>
@@ -2820,37 +2820,37 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>7405812</v>
+        <v>21371070</v>
       </c>
       <c r="F70" s="11">
-        <v>21371070</v>
+        <v>21296131</v>
       </c>
       <c r="G70" s="11">
-        <v>21296131</v>
+        <v>21301870</v>
       </c>
       <c r="H70" s="11">
-        <v>21301870</v>
+        <v>18145586</v>
       </c>
       <c r="I70" s="11">
-        <v>18145586</v>
+        <v>18273129</v>
       </c>
       <c r="J70" s="11">
-        <v>18273129</v>
+        <v>19344840</v>
       </c>
       <c r="K70" s="11">
-        <v>19344840</v>
+        <v>22421044</v>
       </c>
       <c r="L70" s="11">
-        <v>22421044</v>
+        <v>22761969</v>
       </c>
       <c r="M70" s="11">
-        <v>22761969</v>
+        <v>22442495</v>
       </c>
       <c r="N70" s="11">
-        <v>22442495</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31160180</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>20</v>
       </c>
@@ -2859,37 +2859,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>66626620</v>
+        <v>99402561</v>
       </c>
       <c r="F71" s="9">
-        <v>99402561</v>
+        <v>114175514</v>
       </c>
       <c r="G71" s="9">
-        <v>114175514</v>
+        <v>117427490</v>
       </c>
       <c r="H71" s="9">
-        <v>117427490</v>
+        <v>127574520</v>
       </c>
       <c r="I71" s="9">
-        <v>127574520</v>
+        <v>134994739</v>
       </c>
       <c r="J71" s="9">
-        <v>134994739</v>
+        <v>131150408</v>
       </c>
       <c r="K71" s="9">
-        <v>131150408</v>
+        <v>151422392</v>
       </c>
       <c r="L71" s="9">
-        <v>151422392</v>
+        <v>139423422</v>
       </c>
       <c r="M71" s="9">
-        <v>139423422</v>
+        <v>132085762</v>
       </c>
       <c r="N71" s="9">
-        <v>132085762</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>159649672</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>21</v>
       </c>
@@ -2898,37 +2898,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>34081839</v>
+        <v>54470409</v>
       </c>
       <c r="F72" s="11">
-        <v>54470409</v>
+        <v>65932752</v>
       </c>
       <c r="G72" s="11">
-        <v>65932752</v>
+        <v>75266448</v>
       </c>
       <c r="H72" s="11">
-        <v>75266448</v>
+        <v>85225936</v>
       </c>
       <c r="I72" s="11">
-        <v>85225936</v>
+        <v>82654923</v>
       </c>
       <c r="J72" s="11">
-        <v>82654923</v>
+        <v>80785176</v>
       </c>
       <c r="K72" s="11">
-        <v>80785176</v>
+        <v>93974287</v>
       </c>
       <c r="L72" s="11">
-        <v>93974287</v>
+        <v>75773167</v>
       </c>
       <c r="M72" s="11">
-        <v>75773167</v>
-      </c>
-      <c r="N72" s="11">
         <v>74453301</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>33</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>25</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>27</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>28</v>
       </c>
@@ -3140,29 +3140,29 @@
       <c r="G78" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H78" s="11" t="s">
-        <v>23</v>
+      <c r="H78" s="11">
+        <v>12756031</v>
       </c>
       <c r="I78" s="11">
-        <v>12756031</v>
+        <v>15318070</v>
       </c>
       <c r="J78" s="11">
-        <v>15318070</v>
+        <v>13019467</v>
       </c>
       <c r="K78" s="11">
-        <v>13019467</v>
+        <v>17195187</v>
       </c>
       <c r="L78" s="11">
-        <v>17195187</v>
-      </c>
-      <c r="M78" s="11">
         <v>70675403</v>
       </c>
-      <c r="N78" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>29</v>
       </c>
@@ -3171,37 +3171,37 @@
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
-        <v>663562</v>
+        <v>351637</v>
       </c>
       <c r="F79" s="9">
-        <v>351637</v>
-      </c>
-      <c r="G79" s="9">
         <v>581701</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>23</v>
+      <c r="G79" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1019305</v>
       </c>
       <c r="I79" s="9">
-        <v>1019305</v>
+        <v>1276728</v>
       </c>
       <c r="J79" s="9">
-        <v>1276728</v>
+        <v>430379</v>
       </c>
       <c r="K79" s="9">
-        <v>430379</v>
+        <v>843724</v>
       </c>
       <c r="L79" s="9">
-        <v>843724</v>
+        <v>2778488</v>
       </c>
       <c r="M79" s="9">
-        <v>2778488</v>
+        <v>2258533</v>
       </c>
       <c r="N79" s="9">
-        <v>2258533</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>427130</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3216,7 +3216,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3231,7 +3231,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3246,7 +3246,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>42</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3298,7 +3298,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>15</v>
       </c>
@@ -3307,25 +3307,25 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>-288329</v>
+        <v>-281127</v>
       </c>
       <c r="F85" s="9">
-        <v>-281127</v>
+        <v>-273519</v>
       </c>
       <c r="G85" s="9">
-        <v>-273519</v>
+        <v>0</v>
       </c>
       <c r="H85" s="9">
         <v>0</v>
       </c>
       <c r="I85" s="9">
-        <v>0</v>
+        <v>-31718</v>
       </c>
       <c r="J85" s="9">
-        <v>-31718</v>
+        <v>-5938</v>
       </c>
       <c r="K85" s="9">
-        <v>-5938</v>
+        <v>0</v>
       </c>
       <c r="L85" s="9">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>17</v>
       </c>
@@ -3346,37 +3346,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>-1702622</v>
+        <v>-2923120</v>
       </c>
       <c r="F86" s="11">
-        <v>-2923120</v>
+        <v>-5055454</v>
       </c>
       <c r="G86" s="11">
-        <v>-5055454</v>
+        <v>-2487167</v>
       </c>
       <c r="H86" s="11">
-        <v>-2487167</v>
+        <v>-4714481</v>
       </c>
       <c r="I86" s="11">
-        <v>-4714481</v>
+        <v>-10059745</v>
       </c>
       <c r="J86" s="11">
-        <v>-10059745</v>
+        <v>-6233380</v>
       </c>
       <c r="K86" s="11">
-        <v>-6233380</v>
+        <v>-6974676</v>
       </c>
       <c r="L86" s="11">
-        <v>-6974676</v>
+        <v>-6045015</v>
       </c>
       <c r="M86" s="11">
-        <v>-6045015</v>
+        <v>-8048995</v>
       </c>
       <c r="N86" s="11">
-        <v>-8048995</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5410918</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>18</v>
       </c>
@@ -3385,37 +3385,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>-6222023</v>
+        <v>-12741572</v>
       </c>
       <c r="F87" s="9">
-        <v>-12741572</v>
+        <v>-22618873</v>
       </c>
       <c r="G87" s="9">
-        <v>-22618873</v>
+        <v>-18862899</v>
       </c>
       <c r="H87" s="9">
-        <v>-18862899</v>
+        <v>-24433008</v>
       </c>
       <c r="I87" s="9">
-        <v>-24433008</v>
+        <v>-30935481</v>
       </c>
       <c r="J87" s="9">
-        <v>-30935481</v>
+        <v>-2889189</v>
       </c>
       <c r="K87" s="9">
-        <v>-2889189</v>
+        <v>-23551850</v>
       </c>
       <c r="L87" s="9">
-        <v>-23551850</v>
+        <v>-24400701</v>
       </c>
       <c r="M87" s="9">
-        <v>-24400701</v>
+        <v>-20914582</v>
       </c>
       <c r="N87" s="9">
-        <v>-20914582</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-20129261</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>19</v>
       </c>
@@ -3424,37 +3424,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>-58439</v>
+        <v>-21774</v>
       </c>
       <c r="F88" s="11">
-        <v>-21774</v>
+        <v>-49241</v>
       </c>
       <c r="G88" s="11">
-        <v>-49241</v>
+        <v>-76408</v>
       </c>
       <c r="H88" s="11">
-        <v>-76408</v>
+        <v>-75605</v>
       </c>
       <c r="I88" s="11">
-        <v>-75605</v>
+        <v>-101379</v>
       </c>
       <c r="J88" s="11">
-        <v>-101379</v>
+        <v>-148025</v>
       </c>
       <c r="K88" s="11">
-        <v>-148025</v>
+        <v>-70227</v>
       </c>
       <c r="L88" s="11">
-        <v>-70227</v>
+        <v>-263949</v>
       </c>
       <c r="M88" s="11">
-        <v>-263949</v>
+        <v>-240085</v>
       </c>
       <c r="N88" s="11">
-        <v>-240085</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-132335</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>20</v>
       </c>
@@ -3463,37 +3463,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>-7985241</v>
+        <v>-8421236</v>
       </c>
       <c r="F89" s="9">
-        <v>-8421236</v>
+        <v>-11797070</v>
       </c>
       <c r="G89" s="9">
-        <v>-11797070</v>
+        <v>-9655605</v>
       </c>
       <c r="H89" s="9">
-        <v>-9655605</v>
+        <v>-10367182</v>
       </c>
       <c r="I89" s="9">
-        <v>-10367182</v>
+        <v>-19697405</v>
       </c>
       <c r="J89" s="9">
-        <v>-19697405</v>
+        <v>-19164863</v>
       </c>
       <c r="K89" s="9">
-        <v>-19164863</v>
+        <v>-20323278</v>
       </c>
       <c r="L89" s="9">
-        <v>-20323278</v>
+        <v>-21714899</v>
       </c>
       <c r="M89" s="9">
-        <v>-21714899</v>
+        <v>-32771538</v>
       </c>
       <c r="N89" s="9">
-        <v>-32771538</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-21462830</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>21</v>
       </c>
@@ -3502,37 +3502,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>-1185180</v>
+        <v>-1294670</v>
       </c>
       <c r="F90" s="11">
-        <v>-1294670</v>
+        <v>-1040086</v>
       </c>
       <c r="G90" s="11">
-        <v>-1040086</v>
+        <v>-619309</v>
       </c>
       <c r="H90" s="11">
-        <v>-619309</v>
+        <v>-1547804</v>
       </c>
       <c r="I90" s="11">
-        <v>-1547804</v>
+        <v>-2029551</v>
       </c>
       <c r="J90" s="11">
-        <v>-2029551</v>
+        <v>226419</v>
       </c>
       <c r="K90" s="11">
-        <v>226419</v>
+        <v>-591542</v>
       </c>
       <c r="L90" s="11">
-        <v>-591542</v>
+        <v>-892145</v>
       </c>
       <c r="M90" s="11">
-        <v>-892145</v>
+        <v>-3137559</v>
       </c>
       <c r="N90" s="11">
-        <v>-3137559</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-153928</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>33</v>
       </c>
@@ -3546,8 +3546,8 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-      <c r="G91" s="9">
-        <v>0</v>
+      <c r="G91" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>23</v>
@@ -3571,7 +3571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>22</v>
       </c>
@@ -3585,17 +3585,17 @@
       <c r="F92" s="11">
         <v>0</v>
       </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>23</v>
+      <c r="G92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
       </c>
       <c r="K92" s="11">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>24</v>
       </c>
@@ -3633,8 +3633,8 @@
       <c r="I93" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J93" s="9" t="s">
-        <v>23</v>
+      <c r="J93" s="9">
+        <v>0</v>
       </c>
       <c r="K93" s="9">
         <v>0</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>25</v>
       </c>
@@ -3672,8 +3672,8 @@
       <c r="I94" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>23</v>
+      <c r="J94" s="11">
+        <v>0</v>
       </c>
       <c r="K94" s="11">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>27</v>
       </c>
@@ -3711,8 +3711,8 @@
       <c r="I95" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J95" s="9" t="s">
-        <v>23</v>
+      <c r="J95" s="9">
+        <v>0</v>
       </c>
       <c r="K95" s="9">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>28</v>
       </c>
@@ -3744,29 +3744,29 @@
       <c r="G96" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H96" s="11" t="s">
-        <v>23</v>
+      <c r="H96" s="11">
+        <v>-500222</v>
       </c>
       <c r="I96" s="11">
-        <v>-500222</v>
+        <v>-70248</v>
       </c>
       <c r="J96" s="11">
-        <v>-70248</v>
+        <v>-237093</v>
       </c>
       <c r="K96" s="11">
-        <v>-237093</v>
+        <v>-43988</v>
       </c>
       <c r="L96" s="11">
-        <v>-43988</v>
+        <v>-20862</v>
       </c>
       <c r="M96" s="11">
-        <v>-20862</v>
+        <v>64850</v>
       </c>
       <c r="N96" s="11">
-        <v>64850</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-64850</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>29</v>
       </c>
@@ -3775,74 +3775,74 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>-321275</v>
+        <v>-258764</v>
       </c>
       <c r="F97" s="9">
-        <v>-258764</v>
+        <v>-289857</v>
       </c>
       <c r="G97" s="9">
-        <v>-289857</v>
+        <v>-301293</v>
       </c>
       <c r="H97" s="9">
-        <v>-301293</v>
+        <v>-422813</v>
       </c>
       <c r="I97" s="9">
-        <v>-422813</v>
+        <v>-675777</v>
       </c>
       <c r="J97" s="9">
-        <v>-675777</v>
+        <v>-272932</v>
       </c>
       <c r="K97" s="9">
-        <v>-272932</v>
+        <v>-376732</v>
       </c>
       <c r="L97" s="9">
-        <v>-376732</v>
+        <v>-723578</v>
       </c>
       <c r="M97" s="9">
-        <v>-723578</v>
+        <v>-487991</v>
       </c>
       <c r="N97" s="9">
-        <v>-487991</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-202493</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>-17763109</v>
+        <v>-25942263</v>
       </c>
       <c r="F98" s="13">
-        <v>-25942263</v>
+        <v>-41124100</v>
       </c>
       <c r="G98" s="13">
-        <v>-41124100</v>
+        <v>-32002681</v>
       </c>
       <c r="H98" s="13">
-        <v>-32002681</v>
+        <v>-42061115</v>
       </c>
       <c r="I98" s="13">
-        <v>-42061115</v>
+        <v>-63601304</v>
       </c>
       <c r="J98" s="13">
-        <v>-63601304</v>
+        <v>-28725001</v>
       </c>
       <c r="K98" s="13">
-        <v>-28725001</v>
+        <v>-51932293</v>
       </c>
       <c r="L98" s="13">
-        <v>-51932293</v>
+        <v>-54061149</v>
       </c>
       <c r="M98" s="13">
-        <v>-54061149</v>
+        <v>-65535900</v>
       </c>
       <c r="N98" s="13">
-        <v>-65535900</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-47556615</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3857,7 +3857,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3872,7 +3872,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3887,7 +3887,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>43</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3939,7 +3939,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>15</v>
       </c>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9">
-        <v>619879</v>
+        <v>554127</v>
       </c>
       <c r="F104" s="9">
-        <v>554127</v>
+        <v>327977</v>
       </c>
       <c r="G104" s="9">
-        <v>327977</v>
+        <v>0</v>
       </c>
       <c r="H104" s="9">
         <v>0</v>
       </c>
       <c r="I104" s="9">
-        <v>0</v>
+        <v>58734</v>
       </c>
       <c r="J104" s="9">
-        <v>58734</v>
+        <v>45594</v>
       </c>
       <c r="K104" s="9">
-        <v>45594</v>
+        <v>0</v>
       </c>
       <c r="L104" s="9">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>17</v>
       </c>
@@ -3987,37 +3987,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>4350727</v>
+        <v>8068880</v>
       </c>
       <c r="F105" s="11">
-        <v>8068880</v>
+        <v>9158971</v>
       </c>
       <c r="G105" s="11">
-        <v>9158971</v>
+        <v>5841507</v>
       </c>
       <c r="H105" s="11">
-        <v>5841507</v>
+        <v>11277903</v>
       </c>
       <c r="I105" s="11">
-        <v>11277903</v>
+        <v>16759813</v>
       </c>
       <c r="J105" s="11">
-        <v>16759813</v>
+        <v>16601254</v>
       </c>
       <c r="K105" s="11">
-        <v>16601254</v>
+        <v>12090240</v>
       </c>
       <c r="L105" s="11">
-        <v>12090240</v>
+        <v>601127</v>
       </c>
       <c r="M105" s="11">
-        <v>601127</v>
+        <v>2882796</v>
       </c>
       <c r="N105" s="11">
-        <v>2882796</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3103856</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>18</v>
       </c>
@@ -4026,37 +4026,37 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>12493470</v>
+        <v>24455138</v>
       </c>
       <c r="F106" s="9">
-        <v>24455138</v>
+        <v>27437558</v>
       </c>
       <c r="G106" s="9">
-        <v>27437558</v>
+        <v>38239210</v>
       </c>
       <c r="H106" s="9">
-        <v>38239210</v>
+        <v>42658984</v>
       </c>
       <c r="I106" s="9">
-        <v>42658984</v>
+        <v>22410688</v>
       </c>
       <c r="J106" s="9">
-        <v>22410688</v>
+        <v>37285285</v>
       </c>
       <c r="K106" s="9">
-        <v>37285285</v>
+        <v>31343284</v>
       </c>
       <c r="L106" s="9">
-        <v>31343284</v>
+        <v>14134335</v>
       </c>
       <c r="M106" s="9">
-        <v>14134335</v>
+        <v>16843522</v>
       </c>
       <c r="N106" s="9">
-        <v>16843522</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26333719</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>19</v>
       </c>
@@ -4065,37 +4065,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>144147</v>
+        <v>119617</v>
       </c>
       <c r="F107" s="11">
-        <v>119617</v>
+        <v>256827</v>
       </c>
       <c r="G107" s="11">
-        <v>256827</v>
+        <v>388484</v>
       </c>
       <c r="H107" s="11">
-        <v>388484</v>
+        <v>168562</v>
       </c>
       <c r="I107" s="11">
-        <v>168562</v>
+        <v>283380</v>
       </c>
       <c r="J107" s="11">
-        <v>283380</v>
+        <v>346816</v>
       </c>
       <c r="K107" s="11">
-        <v>346816</v>
+        <v>200821</v>
       </c>
       <c r="L107" s="11">
-        <v>200821</v>
+        <v>510527</v>
       </c>
       <c r="M107" s="11">
-        <v>510527</v>
+        <v>93792</v>
       </c>
       <c r="N107" s="11">
-        <v>93792</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>325595</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>20</v>
       </c>
@@ -4104,37 +4104,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
-        <v>11085363</v>
+        <v>18863276</v>
       </c>
       <c r="F108" s="9">
-        <v>18863276</v>
+        <v>24037600</v>
       </c>
       <c r="G108" s="9">
-        <v>24037600</v>
+        <v>18387254</v>
       </c>
       <c r="H108" s="9">
-        <v>18387254</v>
+        <v>14797530</v>
       </c>
       <c r="I108" s="9">
-        <v>14797530</v>
+        <v>14763512</v>
       </c>
       <c r="J108" s="9">
-        <v>14763512</v>
+        <v>23632794</v>
       </c>
       <c r="K108" s="9">
-        <v>23632794</v>
+        <v>26360094</v>
       </c>
       <c r="L108" s="9">
-        <v>26360094</v>
+        <v>11666275</v>
       </c>
       <c r="M108" s="9">
-        <v>11666275</v>
+        <v>13394417</v>
       </c>
       <c r="N108" s="9">
-        <v>13394417</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23570511</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>21</v>
       </c>
@@ -4143,37 +4143,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>3769740</v>
+        <v>3863133</v>
       </c>
       <c r="F109" s="11">
-        <v>3863133</v>
+        <v>2213036</v>
       </c>
       <c r="G109" s="11">
-        <v>2213036</v>
+        <v>2293352</v>
       </c>
       <c r="H109" s="11">
-        <v>2293352</v>
+        <v>4655451</v>
       </c>
       <c r="I109" s="11">
-        <v>4655451</v>
+        <v>2648635</v>
       </c>
       <c r="J109" s="11">
-        <v>2648635</v>
+        <v>601343</v>
       </c>
       <c r="K109" s="11">
-        <v>601343</v>
+        <v>1287004</v>
       </c>
       <c r="L109" s="11">
-        <v>1287004</v>
+        <v>1052346</v>
       </c>
       <c r="M109" s="11">
-        <v>1052346</v>
+        <v>3493252</v>
       </c>
       <c r="N109" s="11">
-        <v>3493252</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-153928</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>33</v>
       </c>
@@ -4187,8 +4187,8 @@
       <c r="F110" s="9">
         <v>0</v>
       </c>
-      <c r="G110" s="9">
-        <v>0</v>
+      <c r="G110" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>23</v>
@@ -4212,7 +4212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>22</v>
       </c>
@@ -4226,17 +4226,17 @@
       <c r="F111" s="11">
         <v>0</v>
       </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I111" s="11">
-        <v>0</v>
-      </c>
-      <c r="J111" s="11" t="s">
-        <v>23</v>
+      <c r="G111" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111" s="11">
+        <v>0</v>
       </c>
       <c r="K111" s="11">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>24</v>
       </c>
@@ -4274,8 +4274,8 @@
       <c r="I112" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J112" s="9" t="s">
-        <v>23</v>
+      <c r="J112" s="9">
+        <v>0</v>
       </c>
       <c r="K112" s="9">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>25</v>
       </c>
@@ -4313,23 +4313,23 @@
       <c r="I113" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J113" s="11" t="s">
-        <v>23</v>
+      <c r="J113" s="11">
+        <v>12945991</v>
       </c>
       <c r="K113" s="11">
-        <v>12945991</v>
+        <v>586923</v>
       </c>
       <c r="L113" s="11">
-        <v>586923</v>
+        <v>67796</v>
       </c>
       <c r="M113" s="11">
-        <v>67796</v>
+        <v>0</v>
       </c>
       <c r="N113" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>27</v>
       </c>
@@ -4352,8 +4352,8 @@
       <c r="I114" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J114" s="9" t="s">
-        <v>23</v>
+      <c r="J114" s="9">
+        <v>0</v>
       </c>
       <c r="K114" s="9">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>28</v>
       </c>
@@ -4385,29 +4385,29 @@
       <c r="G115" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>23</v>
+      <c r="H115" s="11">
+        <v>654135</v>
       </c>
       <c r="I115" s="11">
-        <v>654135</v>
+        <v>91664</v>
       </c>
       <c r="J115" s="11">
-        <v>91664</v>
+        <v>164857</v>
       </c>
       <c r="K115" s="11">
-        <v>164857</v>
+        <v>71770</v>
       </c>
       <c r="L115" s="11">
-        <v>71770</v>
+        <v>14193</v>
       </c>
       <c r="M115" s="11">
-        <v>14193</v>
+        <v>64850</v>
       </c>
       <c r="N115" s="11">
-        <v>64850</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-64850</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>29</v>
       </c>
@@ -4416,71 +4416,71 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
-        <v>412980</v>
+        <v>174760</v>
       </c>
       <c r="F116" s="9">
-        <v>174760</v>
+        <v>153185</v>
       </c>
       <c r="G116" s="9">
-        <v>153185</v>
+        <v>410295</v>
       </c>
       <c r="H116" s="9">
-        <v>410295</v>
+        <v>623826</v>
       </c>
       <c r="I116" s="9">
-        <v>623826</v>
+        <v>46652</v>
       </c>
       <c r="J116" s="9">
-        <v>46652</v>
+        <v>512742</v>
       </c>
       <c r="K116" s="9">
-        <v>512742</v>
+        <v>188662</v>
       </c>
       <c r="L116" s="9">
-        <v>188662</v>
+        <v>536297</v>
       </c>
       <c r="M116" s="9">
-        <v>536297</v>
+        <v>361371</v>
       </c>
       <c r="N116" s="9">
-        <v>361371</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>454892</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13">
-        <v>32876306</v>
+        <v>56098931</v>
       </c>
       <c r="F117" s="13">
-        <v>56098931</v>
+        <v>63585154</v>
       </c>
       <c r="G117" s="13">
-        <v>63585154</v>
+        <v>65560102</v>
       </c>
       <c r="H117" s="13">
-        <v>65560102</v>
+        <v>74836391</v>
       </c>
       <c r="I117" s="13">
-        <v>74836391</v>
+        <v>57063078</v>
       </c>
       <c r="J117" s="13">
-        <v>57063078</v>
+        <v>92136676</v>
       </c>
       <c r="K117" s="13">
-        <v>92136676</v>
+        <v>72128798</v>
       </c>
       <c r="L117" s="13">
-        <v>72128798</v>
+        <v>28582896</v>
       </c>
       <c r="M117" s="13">
-        <v>28582896</v>
+        <v>37134000</v>
       </c>
       <c r="N117" s="13">
-        <v>37134000</v>
+        <v>53569795</v>
       </c>
     </row>
   </sheetData>
